--- a/数据整理/stocks/A股/上证主板/600089-特变电工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600089-特变电工.xlsx
@@ -451,1051 +451,1419 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>382.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4472</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3624</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3624</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3512</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>008838</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>德邦量化对冲策略灵活配置混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>66.58</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>0.83</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>008839</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>德邦量化对冲策略灵活配置混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>66.58</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>0.83</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519677</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>93.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>159935</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城中证500ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>98.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160616</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华中证500指数(LOF) A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501036</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富中证500指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501037</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富中证500指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>165511</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>信诚中证500指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>512510</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证500ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>960005</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>上投摩根双息平衡混合H</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>64.06</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>159922</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实中证500ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>97.92</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>510440</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>大成中证500沪市ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>98.40</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>510500</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方中证500ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>95.14</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>510510</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>广发中证500ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>96.50</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>510580</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达中证500ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>512500</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华夏中证500ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>97.36</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>373010</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>上投摩根双息平衡混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>64.06</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006611</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>人保中证500指数</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006938</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>鹏华中证500指数(LOF) C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002601</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中银证券价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>159820</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>天弘中证500ETF</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>91.08</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>159968</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时中证500ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>159982</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>鹏华中证500ETF</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>159999</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>永赢中证500ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>92.01</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>510530</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>工银瑞信中证500ETF</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>98.96</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>510550</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>方正富邦中证500ETF</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>97.00</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>510570</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>兴业中证500ETF</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>98.78</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>510590</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>平安中证500ETF</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>97.24</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>515190</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>中银证券中证500ETF</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>98.92</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>515510</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>嘉实中证500成长估值ETF</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>98.59</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>515530</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>泰康中证500ETF</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>97.11</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>515550</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>中融中证500ETF</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>91.73</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>004913</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>中银证券聚瑞混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>25.83</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1.63</t>
         </is>
       </c>
-      <c r="F34" t="n">
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>004914</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中银证券聚瑞混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>25.83</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>005947</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>005948</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1505,7 +1873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1526,15 +1894,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003293</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达科瑞灵活配置混合</t>
+          <t>华泰柏瑞中证光伏产业ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82.37</t>
+          <t>98.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4267</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1574,25 +1962,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501036</t>
+          <t>510500</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证500指数(LOF)A</t>
+          <t>南方中证500ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>377.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7189</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1602,26 +2000,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501037</t>
+          <t>516880</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证500指数(LOF)C</t>
+          <t>银华中证光伏产业ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>27.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4824</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>960005</t>
+          <t>011102</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根双息平衡混合H</t>
+          <t>天弘中证光伏产业指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>63.79</t>
+          <t>11.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5951</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>165511</t>
+          <t>516160</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信诚中证500指数（LOF）A</t>
+          <t>南方中证新能源ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>22.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5303</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1686,26 +2114,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010066</t>
+          <t>011103</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>方正富邦中证500指数增强A</t>
+          <t>天弘中证光伏产业指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>34.95</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4447</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1714,26 +2152,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010067</t>
+          <t>003293</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>方正富邦中证500指数增强C</t>
+          <t>易方达科瑞灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>34.95</t>
+          <t>11.13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1742,26 +2190,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>373010</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上投摩根双息平衡混合A</t>
+          <t>华夏中证500ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>63.79</t>
+          <t>35.62</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1770,25 +2228,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010202</t>
+          <t>373010</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘中证科技100指数增强A</t>
+          <t>上投摩根双息平衡混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>63.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1798,26 +2266,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010203</t>
+          <t>159922</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天弘中证科技100指数增强C</t>
+          <t>嘉实中证500ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>26.36</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006611</t>
+          <t>510510</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>人保中证500指数</t>
+          <t>广发中证500ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>26.45</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>97.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1878</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1854,26 +2342,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>510440</t>
+          <t>159820</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大成中证500沪市ETF</t>
+          <t>天弘中证500ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>97.92</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1882,26 +2380,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>510500</t>
+          <t>110012</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南方中证500ETF</t>
+          <t>易方达科汇灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>95.78</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1910,26 +2418,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>510510</t>
+          <t>010202</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发中证500ETF</t>
+          <t>天弘中证科技100指数增强A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>97.68</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1938,25 +2456,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>510530</t>
+          <t>510590</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>工银瑞信中证500ETF</t>
+          <t>平安中证500ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>99.07</t>
+          <t>12.37</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1966,26 +2494,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>510550</t>
+          <t>010203</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>方正富邦中证500ETF</t>
+          <t>天弘中证科技100指数增强C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>97.20</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1994,25 +2532,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>510560</t>
+          <t>510580</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国寿安保中证500ETF</t>
+          <t>易方达中证500ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>98.79</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2022,26 +2570,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>510570</t>
+          <t>510560</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>兴业中证500ETF</t>
+          <t>国寿安保中证500ETF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>99.10</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -2050,26 +2608,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>510580</t>
+          <t>002601</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>易方达中证500ETF</t>
+          <t>中银证券价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2078,26 +2646,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>510590</t>
+          <t>159968</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>平安中证500ETF</t>
+          <t>博时中证500ETF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>96.91</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2106,25 +2684,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010992</t>
+          <t>512510</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>西藏东财中证500指数A</t>
+          <t>华泰柏瑞中证500ETF</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>95.03</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>0.71</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2134,26 +2722,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010993</t>
+          <t>519677</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>西藏东财中证500指数C</t>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>95.03</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2162,26 +2760,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>011102</t>
+          <t>010992</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天弘中证光伏产业指数A</t>
+          <t>西藏东财中证500指数A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -2190,26 +2798,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>011103</t>
+          <t>160616</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天弘中证光伏产业指数C</t>
+          <t>鹏华中证500指数(LOF) A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -2218,25 +2836,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>510530</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华夏中证500ETF</t>
+          <t>工银瑞信中证500ETF</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>97.49</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2246,25 +2874,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>512510</t>
+          <t>501036</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证500ETF</t>
+          <t>汇添富中证500指数(LOF)A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>96.21</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2274,25 +2912,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>515190</t>
+          <t>159982</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中银证券中证500ETF</t>
+          <t>鹏华中证500ETF</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>98.86</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2302,26 +2950,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>515510</t>
+          <t>001675</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>嘉实中证500成长估值ETF</t>
+          <t>江信同福灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>4</v>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -2330,25 +2988,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>515530</t>
+          <t>165511</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>泰康中证500ETF</t>
+          <t>信诚中证500指数（LOF）A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>95.48</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2358,26 +3026,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>515550</t>
+          <t>510570</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中融中证500ETF</t>
+          <t>兴业中证500ETF</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>5</v>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -2386,26 +3064,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>010993</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证光伏产业ETF</t>
+          <t>西藏东财中证500指数C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>99.32</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>6</v>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -2414,26 +3102,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>516160</t>
+          <t>501037</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>南方中证新能源ETF</t>
+          <t>汇添富中证500指数(LOF)C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>99.30</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>10</v>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -2442,26 +3140,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>516880</t>
+          <t>008112</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>银华中证光伏产业ETF</t>
+          <t>中泰中证500指数增强A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>98.48</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>6</v>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -2470,26 +3178,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>110012</t>
+          <t>510440</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>易方达科汇灵活配置混合</t>
+          <t>大成中证500沪市ETF</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>79.22</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>10</v>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2498,26 +3216,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>001675</t>
+          <t>515190</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>江信同福灵活配置混合A</t>
+          <t>中银证券中证500ETF</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>8</v>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -2526,26 +3254,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>001676</t>
+          <t>159935</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>江信同福灵活配置混合C</t>
+          <t>景顺长城中证500ETF</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>8</v>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -2554,26 +3292,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>159820</t>
+          <t>008113</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天弘中证500ETF</t>
+          <t>中泰中证500指数增强C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>90.92</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>4</v>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -2582,25 +3330,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>159922</t>
+          <t>660011</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>嘉实中证500ETF</t>
+          <t>农银中证500指数</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>97.17</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2610,26 +3368,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>159935</t>
+          <t>002730</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>景顺长城中证500ETF</t>
+          <t>华富华鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>98.55</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>4</v>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -2638,26 +3406,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>159968</t>
+          <t>515530</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>博时中证500ETF</t>
+          <t>泰康中证500ETF</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>5</v>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -2666,25 +3444,35 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>159982</t>
+          <t>006938</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>鹏华中证500ETF</t>
+          <t>鹏华中证500指数(LOF) C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2694,26 +3482,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>519677</t>
+          <t>159999</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+          <t>永赢中证500ETF</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>3</v>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -2722,26 +3520,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>159999</t>
+          <t>006611</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>永赢中证500ETF</t>
+          <t>人保中证500指数</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>97.16</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>4</v>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -2750,25 +3558,35 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>160616</t>
+          <t>515510</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>鹏华中证500指数(LOF) A</t>
+          <t>嘉实中证500成长估值ETF</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>94.83</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2778,26 +3596,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>006938</t>
+          <t>001676</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鹏华中证500指数(LOF) C</t>
+          <t>江信同福灵活配置混合C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>94.83</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>4</v>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -2806,26 +3634,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>660011</t>
+          <t>515550</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>农银中证500指数</t>
+          <t>中融中证500ETF</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>4</v>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -2834,26 +3672,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>002601</t>
+          <t>510550</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中银证券价值精选灵活配置混合</t>
+          <t>方正富邦中证500ETF</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>9</v>
+          <t>97.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -2862,26 +3710,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>002730</t>
+          <t>010066</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>华富华鑫灵活配置混合A</t>
+          <t>方正富邦中证500指数增强A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>3</v>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -2890,26 +3748,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>002731</t>
+          <t>010067</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华富华鑫灵活配置混合C</t>
+          <t>方正富邦中证500指数增强C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>3</v>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -2918,26 +3786,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>008112</t>
+          <t>002731</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强A</t>
+          <t>华富华鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>2</v>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -2946,26 +3824,30 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>008113</t>
+          <t>960005</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>89.84</t>
-        </is>
-      </c>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>2</v>
+          <t>63.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600089-特变电工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600089-特变电工.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3832,7 +3833,6 @@
           <t>上投摩根双息平衡混合H</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
           <t>63.79</t>
@@ -3848,6 +3848,2834 @@
       </c>
       <c r="H52" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7004</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>391.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8991</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1645</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9890</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8917</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7269</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3688</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3021</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2325</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>96.17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>71.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600089-特变电工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600089-特变电工.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6681,4 +6682,5264 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H138"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.5967</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>120.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.6887</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>475.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.4148</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.1135</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>63.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.1119</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4547</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8589</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8472</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>58.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7042</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6809</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2343</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1366</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0137</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9290</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8664</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>56.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7805</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5984</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>32.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5044</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4824</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4659</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4644</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4556</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>32.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4476</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3896</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3735</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3732</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2804</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2631</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2546</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2152</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1952</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1896</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>55.09</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>75.66</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>61.26</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>55.09</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>75.66</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>61.26</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002654</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>上投摩根策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>76.04</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011025</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011026</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600089-特变电工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600089-特变电工.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11942,4 +11943,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>137</v>
+      </c>
+      <c r="D2" t="n">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600089-特变电工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600089-特变电工.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11951,7 +11952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11962,17 +11963,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11982,14 +12003,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>137</v>
-      </c>
-      <c r="D2" t="n">
-        <v>59.8</v>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>141.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.6052</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -11998,14 +12041,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>73</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.33</v>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>136.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.9707</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -12014,14 +12079,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>51</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.33</v>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.9271</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -12030,13 +12117,2013 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>109.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>39.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1049</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3174</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6737</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6264</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5141</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4153</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3521</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3436</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3370</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3254</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012723</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012722</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013106</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011667</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013105</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011668</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003182</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003183</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>137</v>
+      </c>
+      <c r="D3" t="n">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>36</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600089-特变电工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600089-特变电工.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14022,7 +14023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14033,17 +14034,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14053,14 +14074,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>53</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.45</v>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>149.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.4018</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -14069,14 +14112,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>137</v>
-      </c>
-      <c r="D3" t="n">
-        <v>59.8</v>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>136.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.1735</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -14085,14 +14150,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>73</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.33</v>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>159.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.3808</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -14101,14 +14188,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>51</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.33</v>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.3946</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -14117,13 +14226,2029 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>127.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.1275</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9156</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8510</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8811</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7355</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6197</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5200</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4282</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4195</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3897</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2886</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2886</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012722</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2800</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2592</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012723</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2113</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013105</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013106</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>64.74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>54</v>
+      </c>
+      <c r="D2" t="n">
+        <v>45.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>53</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>137</v>
+      </c>
+      <c r="D4" t="n">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>73</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>51</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>36</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600089-特变电工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600089-特变电工.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16131,7 +16132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16142,17 +16143,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -16162,14 +16183,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>54</v>
-      </c>
-      <c r="D2" t="n">
-        <v>45.72</v>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>162.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.0344</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -16178,14 +16221,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>53</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28.45</v>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>141.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.1184</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -16194,14 +16259,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>137</v>
-      </c>
-      <c r="D4" t="n">
-        <v>59.8</v>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.2681</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -16210,14 +16297,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>73</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.33</v>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>127.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.1455</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -16226,14 +16335,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>51</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.33</v>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>134.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.8486</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -16242,13 +16373,4133 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>70.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6818</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1468</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9410</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7600</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5457</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5194</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3909</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3396</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012722</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3078</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2966</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2823</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2527</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012723</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2323</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>69.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1969</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013105</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014175</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005530</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013106</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007044</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博道沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014902</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城新能源股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519224</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>海富通欣荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009156</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>海富通富泽混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014903</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长城新能源股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014176</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007045</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博道沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>71.88</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>78.56</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>519223</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>海富通欣荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013262</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>33.19</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009157</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>海富通富泽混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>673090</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010556</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇添富沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>78.56</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>33.19</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005627</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>110</v>
+      </c>
+      <c r="D2" t="n">
+        <v>47.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>45.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>53</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>137</v>
+      </c>
+      <c r="D5" t="n">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>73</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>51</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>36</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600089-特变电工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600089-特变电工.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D2" t="n">
-        <v>47.42</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="D3" t="n">
-        <v>45.72</v>
+        <v>47.42</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" t="n">
-        <v>28.45</v>
+        <v>45.72</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="D5" t="n">
-        <v>59.8</v>
+        <v>28.45</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="D6" t="n">
-        <v>13.33</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="7">
@@ -568,11 +569,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D7" t="n">
         <v>13.33</v>
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>51</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>36</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.71</v>
       </c>
     </row>
@@ -600,6 +617,3746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>128.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.9531</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0966</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9304</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7018</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5481</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4356</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3312</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004046</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3163</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2754</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>66.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516290</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012723</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012885</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159618</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159609</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>200002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014605</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012886</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>673100</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014175</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006912</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>517960</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>673101</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012722</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014604</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银河定投宝腾讯济安指数</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>46.20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015061</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008318</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博道久航混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015062</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004047</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011667</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014176</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003958</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>安信量化精选沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>562910</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>易方达中证装备产业ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>97.14</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008319</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博道久航混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011668</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159853</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003957</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>安信量化精选沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>44.98</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011391</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>46.20</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>66.07</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015677</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005627</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4833,7 +8590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6941,7 +10698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9011,7 +12768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14271,7 +18028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17099,7 +20856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19086,7 +22843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600089-特变电工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600089-特变电工.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D2" t="n">
-        <v>20.82</v>
+        <v>20.19</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D3" t="n">
-        <v>47.42</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="D4" t="n">
-        <v>45.72</v>
+        <v>47.42</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
-        <v>28.45</v>
+        <v>45.72</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="D6" t="n">
-        <v>59.8</v>
+        <v>28.45</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="D7" t="n">
-        <v>13.33</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="8">
@@ -585,11 +586,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D8" t="n">
         <v>13.33</v>
@@ -601,14 +602,1452 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>51</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>36</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>382.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4472</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3624</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3624</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3512</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>66.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>66.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2056,2452 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>137.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.9170</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5829</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7837</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9752</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5922</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4072</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3704</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2776</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2703</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2641</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014605</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159609</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012723</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516290</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012885</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159618</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012886</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>517960</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012722</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014604</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>75.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>562910</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达中证装备产业ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014724</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006785</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>016915</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中金华证清洁能源指数A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>016916</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中金华证清洁能源指数C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015677</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011391</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>75.93</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005627</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>016803</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4356,7 +8241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8590,7 +12475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10698,7 +14583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12768,7 +16653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18028,7 +21913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20856,7 +24741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22841,1426 +26726,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>510500</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方中证500ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>382.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.4472</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>960005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根双息平衡混合H</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.92</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>64.06</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3624</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>373010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根双息平衡混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.92</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>64.06</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3624</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>512500</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏中证500ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>54.03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>97.36</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3512</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>159922</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实中证500ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>36.78</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>97.92</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2391</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>510510</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发中证500ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>34.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>96.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2142</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>159820</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>天弘中证500ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>24.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.08</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1469</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>510590</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>平安中证500ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>19.49</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>97.24</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1267</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002601</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中银证券价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0887</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>510580</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达中证500ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0566</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>159968</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时中证500ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0566</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>512510</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证500ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0350</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>519677</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.30</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0328</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>510530</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>工银瑞信中证500ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>98.96</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>501036</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇添富中证500指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>160616</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏华中证500指数(LOF) A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008838</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>德邦量化对冲策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>66.58</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0194</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>159982</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>鹏华中证500ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>165511</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>信诚中证500指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005947</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>510570</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>兴业中证500ETF</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>98.78</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0099</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>515530</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>泰康中证500ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>97.11</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>501037</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>汇添富中证500指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>515190</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中银证券中证500ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>98.92</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>510440</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>大成中证500沪市ETF</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>98.40</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>159935</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>景顺长城中证500ETF</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>98.13</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>159999</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>永赢中证500ETF</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>92.01</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>515510</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>嘉实中证500成长估值ETF</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>98.59</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>006938</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>鹏华中证500指数(LOF) C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>008839</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>德邦量化对冲策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>66.58</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>515550</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>中融中证500ETF</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>91.73</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>006611</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>人保中证500指数</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>510550</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>方正富邦中证500ETF</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>97.00</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>005948</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>004913</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>中银证券聚瑞混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>25.83</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>004914</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>中银证券聚瑞混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>25.83</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>